--- a/experiment result/128_0.0_40_zs40_kappa_lp.xlsx
+++ b/experiment result/128_0.0_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06785809665391705</v>
+        <v>0.009693771989218197</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06099837105997561</v>
+        <v>0.01331573321071344</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06070811020750862</v>
+        <v>0.02073200606131125</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05109707820264171</v>
+        <v>0.02405476207860246</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04164572506338091</v>
+        <v>0.02279697116930474</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0664825879887236</v>
+        <v>0.01379266488999898</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0691856870560684</v>
+        <v>0.0176742778655926</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06299227889644994</v>
+        <v>0.01669906831895775</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05279027786916448</v>
+        <v>0.01664793615116476</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06468145591890642</v>
+        <v>0.01545950550454779</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07173123576284512</v>
+        <v>0.02633508526355695</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06510601697767493</v>
+        <v>0.02559408916191605</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08766393210196635</v>
+        <v>0.02459863489597564</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07510258134343278</v>
+        <v>0.02306493279994769</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05819152644566149</v>
+        <v>0.01317504285737287</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06678794052868127</v>
+        <v>0.02208069873910257</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06748443275757575</v>
+        <v>0.01896698994121182</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06604846824790968</v>
+        <v>0.01016844072789059</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05410604953256925</v>
+        <v>0.01984441226498747</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05706576248670235</v>
+        <v>0.02609398921939823</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04310357966435487</v>
+        <v>0.002903346002955669</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04278635498576314</v>
+        <v>0.01013946627430851</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06329730560258602</v>
+        <v>0.0191457318113781</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05472053955586792</v>
+        <v>0.01278175253182804</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04952655640675025</v>
+        <v>0.008188492567461321</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07510258134343278</v>
+        <v>0.0256284091931337</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0715592372538837</v>
+        <v>0.02331743349650252</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04498816146242497</v>
+        <v>0.02244827482200218</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05774013778989625</v>
+        <v>0.012328967107865</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06808401493345514</v>
+        <v>0.01716855730952876</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05379940329039943</v>
+        <v>0.01357050263294365</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05464014130642088</v>
+        <v>0.01911341249965311</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07417334811543309</v>
+        <v>0.03244459554852824</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04888473833554826</v>
+        <v>0.01384545335640378</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04998709859022776</v>
+        <v>0.02600675978198618</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06644052134021712</v>
+        <v>0.01520338235379147</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04785051752293582</v>
+        <v>0.01700467471924588</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08014290454394632</v>
+        <v>0.02646653633471077</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05091712355462951</v>
+        <v>0.01737525149927982</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06479493275196577</v>
+        <v>0.01301121435978899</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07623736849430417</v>
+        <v>0.01712931157208676</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0355178012141204</v>
+        <v>0.008434859636402269</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04312662672054585</v>
+        <v>0.01922720353517279</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04740296910207015</v>
+        <v>0.01777667818328332</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04905736810319843</v>
+        <v>0.02212008433155045</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0548051795418568</v>
+        <v>0.02391539955983994</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06254935452272299</v>
+        <v>0.0196755522426347</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05941604025630475</v>
+        <v>0.007758943950630256</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05660728600465162</v>
+        <v>0.006083295679028159</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06682205722835922</v>
+        <v>0.01709246570981874</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05939589587261443</v>
+        <v>0.04157565166245866</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05592696653299682</v>
+        <v>0.0378573031089155</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03895638657796879</v>
+        <v>0.00741702546095751</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04337390668414388</v>
+        <v>0.01047154140412927</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05544108582829052</v>
+        <v>0.03019732637047312</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06307586547867965</v>
+        <v>0.03871943950756428</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0657391356070923</v>
+        <v>0.02802714123023654</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07487423421253629</v>
+        <v>0.0284022490706276</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05802540561397346</v>
+        <v>0.03493071261668492</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08739439514777758</v>
+        <v>0.03228670073961479</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04163840802878867</v>
+        <v>0.005337746747481885</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04984688337132018</v>
+        <v>0.01776958685809474</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05318515633182012</v>
+        <v>0.02140837492177724</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03961140829132814</v>
+        <v>0.03313184596556296</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04832527000085399</v>
+        <v>0.03904082992174756</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06013240891145131</v>
+        <v>0.0320524239324936</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05700703743482148</v>
+        <v>0.044898100414098</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05559563887147693</v>
+        <v>0.03186998850096556</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05432503612168302</v>
+        <v>0.01577700453983262</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05767726539261937</v>
+        <v>0.02498217260998095</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06270892765304954</v>
+        <v>0.02222688423111823</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06884268649472786</v>
+        <v>0.02263249538026536</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05865912300025731</v>
+        <v>0.04295937509197422</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06725089487679452</v>
+        <v>0.02183507708309098</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05017692171380837</v>
+        <v>0.03227842829702449</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04703412808309888</v>
+        <v>0.03275017503789223</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06362946288316701</v>
+        <v>0.02211549697511826</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05275556949141205</v>
+        <v>0.03223973944187757</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05792209015685617</v>
+        <v>0.02990088463035865</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05755347620301123</v>
+        <v>0.03246559088430719</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05127707312972497</v>
+        <v>0.03784408800234929</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07786348851554489</v>
+        <v>0.043847340992424</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04602652616739742</v>
+        <v>0.01268127950765749</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08039554532799996</v>
+        <v>0.02792360811916264</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06069228918533828</v>
+        <v>0.03088936503031876</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0670203551072875</v>
+        <v>0.02777375687361734</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06529461479393736</v>
+        <v>0.03374654343617078</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06876195512157512</v>
+        <v>0.03478974610925956</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05183673749488159</v>
+        <v>0.03177702396394138</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06901295539571829</v>
+        <v>0.02973642944088993</v>
       </c>
     </row>
   </sheetData>
